--- a/Data Files/DataSetPRP2.xlsx
+++ b/Data Files/DataSetPRP2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian.Romero\git\BT-Web-KS-COTIZADOR\BT-Web-KS-COTIZADOR\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{8D559F43-4750-4697-802C-E8D5DFBF53B8}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{9D937D0F-DAEC-4D02-B0EA-E24AF6E6DF37}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
     <workbookView activeTab="1" windowHeight="13176" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="72">
   <si>
     <t>folio</t>
   </si>
@@ -196,49 +196,52 @@
     <t>Lote</t>
   </si>
   <si>
+    <t>1528</t>
+  </si>
+  <si>
+    <t>1529</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>1531</t>
+  </si>
+  <si>
+    <t>1532</t>
+  </si>
+  <si>
+    <t>1533</t>
+  </si>
+  <si>
+    <t>1534</t>
+  </si>
+  <si>
+    <t>1535</t>
+  </si>
+  <si>
+    <t>1536</t>
+  </si>
+  <si>
+    <t>1539</t>
+  </si>
+  <si>
+    <t>1540</t>
+  </si>
+  <si>
+    <t>1541</t>
+  </si>
+  <si>
+    <t>1542</t>
+  </si>
+  <si>
+    <t>1544</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>1528</t>
-  </si>
-  <si>
-    <t>1529</t>
-  </si>
-  <si>
-    <t>1530</t>
-  </si>
-  <si>
-    <t>1531</t>
-  </si>
-  <si>
-    <t>1532</t>
-  </si>
-  <si>
-    <t>1533</t>
-  </si>
-  <si>
-    <t>1534</t>
-  </si>
-  <si>
-    <t>1535</t>
-  </si>
-  <si>
-    <t>1536</t>
-  </si>
-  <si>
-    <t>1539</t>
-  </si>
-  <si>
-    <t>1540</t>
-  </si>
-  <si>
-    <t>1541</t>
-  </si>
-  <si>
-    <t>1542</t>
-  </si>
-  <si>
-    <t>1544</t>
+    <t>1550</t>
   </si>
 </sst>
 </file>
@@ -563,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
@@ -579,116 +582,124 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -700,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F226A1B-D8F6-4683-9B2A-5F6446A1E648}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R15" sqref="R15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1514,7 +1525,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1522,7 +1533,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>51</v>
@@ -1534,7 +1545,7 @@
         <v>47</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="I14" s="1">
         <v>676000</v>

--- a/Data Files/DataSetPRP2.xlsx
+++ b/Data Files/DataSetPRP2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian.Romero\git\BT-Web-KS-COTIZADOR\BT-Web-KS-COTIZADOR\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{9D937D0F-DAEC-4D02-B0EA-E24AF6E6DF37}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{A9040E6E-F365-408F-8EB9-907E2387F251}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView activeTab="1" windowHeight="13176" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView windowHeight="13176" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Folios" r:id="rId1" sheetId="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="97">
   <si>
     <t>folio</t>
   </si>
@@ -34,21 +34,6 @@
     <t>cliente</t>
   </si>
   <si>
-    <t>MERBER SA DE CV</t>
-  </si>
-  <si>
-    <t>ABARROTES DEL HUESO SA DE CV</t>
-  </si>
-  <si>
-    <t>PRODUCTOS DEL HUERTO S.A. DE C.V.</t>
-  </si>
-  <si>
-    <t>DESARROLLOS BIOTECNOLÓGICOS DEL BAJÍO, SA DE CV</t>
-  </si>
-  <si>
-    <t>DIAMANTE BIG</t>
-  </si>
-  <si>
     <t>usuario</t>
   </si>
   <si>
@@ -196,52 +181,142 @@
     <t>Lote</t>
   </si>
   <si>
-    <t>1528</t>
-  </si>
-  <si>
-    <t>1529</t>
-  </si>
-  <si>
-    <t>1530</t>
-  </si>
-  <si>
-    <t>1531</t>
-  </si>
-  <si>
-    <t>1532</t>
-  </si>
-  <si>
-    <t>1533</t>
-  </si>
-  <si>
-    <t>1534</t>
-  </si>
-  <si>
-    <t>1535</t>
-  </si>
-  <si>
-    <t>1536</t>
-  </si>
-  <si>
-    <t>1539</t>
-  </si>
-  <si>
-    <t>1540</t>
-  </si>
-  <si>
-    <t>1541</t>
-  </si>
-  <si>
-    <t>1542</t>
-  </si>
-  <si>
-    <t>1544</t>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>EUROS</t>
+  </si>
+  <si>
+    <t>ANGELICA UWYJ DICART LUMIER</t>
+  </si>
+  <si>
+    <t>KEEP WALKING</t>
+  </si>
+  <si>
+    <t>RUBEN ENEV JUNO KIN</t>
+  </si>
+  <si>
+    <t>MAURICIO RYRL RIQUELME SUAREZ</t>
+  </si>
+  <si>
+    <t>OVEJERA DEL NORTE S.A. DE C.V</t>
+  </si>
+  <si>
+    <t>JOSE ORTEGA OSORIO</t>
+  </si>
+  <si>
+    <t>MURIEL VVUL DIFELLATIO RUIZ</t>
+  </si>
+  <si>
+    <t>UFFAS TRUFAS</t>
+  </si>
+  <si>
+    <t>JOSE MARIA PVXV MORELOS Y PAVON</t>
+  </si>
+  <si>
+    <t>NUTELA NUTS</t>
+  </si>
+  <si>
+    <t>FAIST ALUCAST S DE RL DE CV</t>
+  </si>
+  <si>
+    <t>LEMON TREE</t>
+  </si>
+  <si>
+    <t>1598</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>1602</t>
+  </si>
+  <si>
+    <t>1603</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>OVEJERA DEL NORTE S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1613</t>
+  </si>
+  <si>
+    <t>cotizacionAceptada</t>
+  </si>
+  <si>
+    <t>1622</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>1550</t>
+    <t>1630</t>
+  </si>
+  <si>
+    <t>1631</t>
+  </si>
+  <si>
+    <t>1632</t>
+  </si>
+  <si>
+    <t>1633</t>
+  </si>
+  <si>
+    <t>1634</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>1636</t>
+  </si>
+  <si>
+    <t>1637</t>
+  </si>
+  <si>
+    <t>1638</t>
+  </si>
+  <si>
+    <t>1639</t>
+  </si>
+  <si>
+    <t>1640</t>
+  </si>
+  <si>
+    <t>1641</t>
+  </si>
+  <si>
+    <t>1642</t>
+  </si>
+  <si>
+    <t>1643</t>
   </si>
 </sst>
 </file>
@@ -566,140 +641,434 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="32.44140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="6.109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="25.44140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="17.109375" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" t="s">
         <v>58</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
         <v>59</v>
       </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" t="s">
         <v>60</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C9" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
         <v>63</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>76</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>53</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>93</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -711,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F226A1B-D8F6-4683-9B2A-5F6446A1E648}">
   <dimension ref="A1:U15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -727,105 +1096,105 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row ht="28.8" r="2" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
+      <c r="A2" t="s">
+        <v>53</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="F2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I2" s="1">
         <v>676000</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O2" s="1">
         <v>12</v>
@@ -837,57 +1206,57 @@
         <v>1</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="28.8" r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row ht="28.8" r="3" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I3" s="1">
         <v>676000</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O3" s="1">
         <v>12</v>
@@ -899,57 +1268,57 @@
         <v>2</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row ht="28.8" r="4" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
+      <c r="A4" t="s">
+        <v>55</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I4" s="1">
         <v>676000</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O4" s="1">
         <v>12</v>
@@ -961,57 +1330,57 @@
         <v>1</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row ht="28.8" r="5" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>5</v>
+      <c r="A5" t="s">
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="I5" s="1">
         <v>676000</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O5" s="1">
         <v>12</v>
@@ -1023,57 +1392,57 @@
         <v>2</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row ht="28.8" r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I6" s="1">
         <v>676000</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O6" s="1">
         <v>12</v>
@@ -1085,54 +1454,57 @@
         <v>4</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I7" s="1">
         <v>676000</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O7" s="1">
         <v>12</v>
@@ -1144,57 +1516,57 @@
         <v>2</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row ht="28.8" r="8" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I8" s="1">
         <v>676000</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O8" s="1">
         <v>12</v>
@@ -1206,57 +1578,57 @@
         <v>1</v>
       </c>
       <c r="R8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="28.8" r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row ht="28.8" r="9" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I9" s="1">
         <v>676000</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O9" s="1">
         <v>12</v>
@@ -1268,57 +1640,57 @@
         <v>1</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T9" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="28.8" r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row ht="28.8" r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I10" s="1">
         <v>676000</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O10" s="1">
         <v>12</v>
@@ -1330,57 +1702,57 @@
         <v>2</v>
       </c>
       <c r="R10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="28.8" r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row ht="28.8" r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1">
         <v>676000</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O11" s="1">
         <v>12</v>
@@ -1392,57 +1764,57 @@
         <v>1</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S11" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row ht="28.8" r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>5</v>
+      <c r="A12" t="s">
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I12" s="1">
         <v>676000</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O12" s="1">
         <v>12</v>
@@ -1454,57 +1826,57 @@
         <v>2</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row ht="28.8" r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I13" s="1">
         <v>676000</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="O13" s="1">
         <v>12</v>
@@ -1516,54 +1888,57 @@
         <v>4</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row ht="28.8" r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
+      <c r="A14" t="s">
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="I14" s="1">
         <v>676000</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="O14" s="1">
         <v>12</v>
@@ -1575,57 +1950,57 @@
         <v>2</v>
       </c>
       <c r="R14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row ht="28.8" r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="S14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row ht="28.8" r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="H15" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I15" s="1">
         <v>676000</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="O15" s="1">
         <v>12</v>
@@ -1637,29 +2012,17 @@
         <v>1</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="http://172.20.4.82/unifin/ - Accounts/0301bf04-a37c-11e9-8ce5-00155d96730d" location="Accounts/0301bf04-a37c-11e9-8ce5-00155d96730d" r:id="rId1" ref="A2" xr:uid="{5A0A08AE-FD89-4517-BD62-3C95C1C1B9F8}"/>
-    <hyperlink display="http://172.20.4.82/unifin/ - Accounts/84ff8130-0abd-11ec-a7dd-00155d962e00" location="Accounts/84ff8130-0abd-11ec-a7dd-00155d962e00" r:id="rId2" ref="A3" xr:uid="{5C6CCFD3-274C-4F13-ADB9-F029740D12E0}"/>
-    <hyperlink display="http://172.20.4.82/unifin/ - Accounts/115a08c2-0b94-11ec-b1c1-00155d962e00" location="Accounts/115a08c2-0b94-11ec-b1c1-00155d962e00" r:id="rId3" ref="A4" xr:uid="{17330DFC-FD35-4919-8233-12E9D948CAFD}"/>
-    <hyperlink display="http://172.20.4.82/unifin/ - Accounts/84ff8130-0abd-11ec-a7dd-00155d962e00" location="Accounts/84ff8130-0abd-11ec-a7dd-00155d962e00" r:id="rId4" ref="A6" xr:uid="{24EDEBA7-A3EE-43A7-9318-C1E68CBAABA5}"/>
-    <hyperlink display="http://172.20.4.82/unifin/ - Accounts/84ff8130-0abd-11ec-a7dd-00155d962e00" location="Accounts/84ff8130-0abd-11ec-a7dd-00155d962e00" r:id="rId5" ref="A8" xr:uid="{F666FBA6-6FAF-492A-8052-0F0833EC4538}"/>
-    <hyperlink display="http://172.20.4.82/unifin/ - Accounts/0301bf04-a37c-11e9-8ce5-00155d96730d" location="Accounts/0301bf04-a37c-11e9-8ce5-00155d96730d" r:id="rId6" ref="A9" xr:uid="{F97E7859-D6A0-4BD7-85FD-5A8B94E9EB09}"/>
-    <hyperlink display="http://172.20.4.82/unifin/ - Accounts/84ff8130-0abd-11ec-a7dd-00155d962e00" location="Accounts/84ff8130-0abd-11ec-a7dd-00155d962e00" r:id="rId7" ref="A10" xr:uid="{6FD9B05D-C0FF-4B6E-90A7-69DC281BC4E6}"/>
-    <hyperlink display="http://172.20.4.82/unifin/ - Accounts/115a08c2-0b94-11ec-b1c1-00155d962e00" location="Accounts/115a08c2-0b94-11ec-b1c1-00155d962e00" r:id="rId8" ref="A11" xr:uid="{4A7EF1A0-ED48-49D1-9647-843A9CBBA1D8}"/>
-    <hyperlink display="http://172.20.4.82/unifin/ - Accounts/84ff8130-0abd-11ec-a7dd-00155d962e00" location="Accounts/84ff8130-0abd-11ec-a7dd-00155d962e00" r:id="rId9" ref="A13" xr:uid="{8417D212-E3D5-4F45-9557-40333707773C}"/>
-    <hyperlink display="http://172.20.4.82/unifin/ - Accounts/84ff8130-0abd-11ec-a7dd-00155d962e00" location="Accounts/84ff8130-0abd-11ec-a7dd-00155d962e00" r:id="rId10" ref="A15" xr:uid="{E83FC083-3D9C-45C6-9629-50AC4EDE8D4A}"/>
-  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId11" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Data Files/DataSetPRP2.xlsx
+++ b/Data Files/DataSetPRP2.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="99">
   <si>
     <t>folio</t>
   </si>
@@ -317,6 +317,12 @@
   </si>
   <si>
     <t>1643</t>
+  </si>
+  <si>
+    <t>1647</t>
+  </si>
+  <si>
+    <t>1649</t>
   </si>
 </sst>
 </file>
@@ -641,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
@@ -1069,6 +1075,34 @@
       </c>
       <c r="D29" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/DataSetPRP2.xlsx
+++ b/Data Files/DataSetPRP2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian.Romero\git\BT-Web-KS-COTIZADOR\BT-Web-KS-COTIZADOR\Data Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian.Romero\Documents\GitHub\BT-Web-KS-COTIZADORs\Data Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{A9040E6E-F365-408F-8EB9-907E2387F251}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr documentId="13_ncr:1_{AC787B9C-FE33-41B1-A4E3-06519F45E35B}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView windowHeight="13176" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
+    <workbookView activeTab="1" windowHeight="13176" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet name="Folios" r:id="rId1" sheetId="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="143">
   <si>
     <t>folio</t>
   </si>
@@ -115,9 +115,6 @@
     <t>ESTRUCTURADO PURO</t>
   </si>
   <si>
-    <t>Reestructura</t>
-  </si>
-  <si>
     <t>ARRENDAMIENTO AGRICOLA</t>
   </si>
   <si>
@@ -139,190 +136,325 @@
     <t>Cesión de Derechos</t>
   </si>
   <si>
-    <t>Recolocado</t>
-  </si>
-  <si>
-    <t>Recontratado</t>
-  </si>
-  <si>
     <t>Crédito Puente</t>
   </si>
   <si>
-    <t>Cancelado No Reportes</t>
-  </si>
-  <si>
-    <t>Pago a Proveedor</t>
+    <t>DOLARES</t>
+  </si>
+  <si>
+    <t>contado</t>
+  </si>
+  <si>
+    <t>Financiado</t>
+  </si>
+  <si>
+    <t>LeaseBack</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>EUROS</t>
+  </si>
+  <si>
+    <t>ANGELICA UWYJ DICART LUMIER</t>
+  </si>
+  <si>
+    <t>KEEP WALKING</t>
+  </si>
+  <si>
+    <t>RUBEN ENEV JUNO KIN</t>
+  </si>
+  <si>
+    <t>MAURICIO RYRL RIQUELME SUAREZ</t>
+  </si>
+  <si>
+    <t>JOSE ORTEGA OSORIO</t>
+  </si>
+  <si>
+    <t>MURIEL VVUL DIFELLATIO RUIZ</t>
+  </si>
+  <si>
+    <t>UFFAS TRUFAS</t>
+  </si>
+  <si>
+    <t>JOSE MARIA PVXV MORELOS Y PAVON</t>
+  </si>
+  <si>
+    <t>NUTELA NUTS</t>
+  </si>
+  <si>
+    <t>FAIST ALUCAST S DE RL DE CV</t>
+  </si>
+  <si>
+    <t>LEMON TREE</t>
+  </si>
+  <si>
+    <t>1598</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1599</t>
+  </si>
+  <si>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>1601</t>
+  </si>
+  <si>
+    <t>1602</t>
+  </si>
+  <si>
+    <t>1603</t>
+  </si>
+  <si>
+    <t>1604</t>
+  </si>
+  <si>
+    <t>1605</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>OVEJERA DEL NORTE S.A. DE C.V.</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1613</t>
+  </si>
+  <si>
+    <t>cotizacionAceptada</t>
+  </si>
+  <si>
+    <t>1622</t>
+  </si>
+  <si>
+    <t>1630</t>
+  </si>
+  <si>
+    <t>1631</t>
+  </si>
+  <si>
+    <t>1632</t>
+  </si>
+  <si>
+    <t>1633</t>
+  </si>
+  <si>
+    <t>1634</t>
+  </si>
+  <si>
+    <t>1635</t>
+  </si>
+  <si>
+    <t>1636</t>
+  </si>
+  <si>
+    <t>1637</t>
+  </si>
+  <si>
+    <t>1638</t>
+  </si>
+  <si>
+    <t>1639</t>
+  </si>
+  <si>
+    <t>1640</t>
+  </si>
+  <si>
+    <t>1641</t>
+  </si>
+  <si>
+    <t>1642</t>
+  </si>
+  <si>
+    <t>1643</t>
+  </si>
+  <si>
+    <t>1647</t>
+  </si>
+  <si>
+    <t>1649</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colocado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARRENDAMIENTO AGRICOLA </t>
+  </si>
+  <si>
+    <t>Placas</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CAF</t>
+  </si>
+  <si>
+    <t>EDUARDO ORSORIO AVILES</t>
+  </si>
+  <si>
+    <t>ARACELI PEÑA DORANTES</t>
+  </si>
+  <si>
+    <t>NOEMI EZME TORRES CARRILLO</t>
+  </si>
+  <si>
+    <t>REFACCIONES MURILLO POYS SA DE CV</t>
+  </si>
+  <si>
+    <t>OMAR MULU AGUILERA CHALAMANCH</t>
+  </si>
+  <si>
+    <t>VINOS Y LICORES GERONIMO KDZK SA DE CV</t>
+  </si>
+  <si>
+    <t>ALEJANDARA RIPUL GARCIA</t>
+  </si>
+  <si>
+    <t>ZAMIRA NGEA ZAMARRIPA ZARAGOZA</t>
+  </si>
+  <si>
+    <t>1692</t>
+  </si>
+  <si>
+    <t>1693</t>
+  </si>
+  <si>
+    <t>1694</t>
+  </si>
+  <si>
+    <t>1696</t>
+  </si>
+  <si>
+    <t>1698</t>
+  </si>
+  <si>
+    <t>1699</t>
   </si>
   <si>
     <t>Activo</t>
   </si>
   <si>
-    <t>DOLARES</t>
-  </si>
-  <si>
-    <t>contado</t>
-  </si>
-  <si>
-    <t>Financiado</t>
-  </si>
-  <si>
-    <t>Colocado</t>
-  </si>
-  <si>
-    <t>Referenciada</t>
-  </si>
-  <si>
-    <t>LeaseBack</t>
-  </si>
-  <si>
     <t>Flotilla</t>
   </si>
   <si>
     <t>Lote</t>
   </si>
   <si>
-    <t>Tipo</t>
-  </si>
-  <si>
-    <t>EUROS</t>
-  </si>
-  <si>
-    <t>ANGELICA UWYJ DICART LUMIER</t>
-  </si>
-  <si>
-    <t>KEEP WALKING</t>
-  </si>
-  <si>
-    <t>RUBEN ENEV JUNO KIN</t>
-  </si>
-  <si>
-    <t>MAURICIO RYRL RIQUELME SUAREZ</t>
-  </si>
-  <si>
-    <t>OVEJERA DEL NORTE S.A. DE C.V</t>
-  </si>
-  <si>
-    <t>JOSE ORTEGA OSORIO</t>
-  </si>
-  <si>
-    <t>MURIEL VVUL DIFELLATIO RUIZ</t>
-  </si>
-  <si>
-    <t>UFFAS TRUFAS</t>
-  </si>
-  <si>
-    <t>JOSE MARIA PVXV MORELOS Y PAVON</t>
-  </si>
-  <si>
-    <t>NUTELA NUTS</t>
-  </si>
-  <si>
-    <t>FAIST ALUCAST S DE RL DE CV</t>
-  </si>
-  <si>
-    <t>LEMON TREE</t>
-  </si>
-  <si>
-    <t>1598</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1599</t>
-  </si>
-  <si>
-    <t>1600</t>
-  </si>
-  <si>
-    <t>1601</t>
-  </si>
-  <si>
-    <t>1602</t>
-  </si>
-  <si>
-    <t>1603</t>
-  </si>
-  <si>
-    <t>1604</t>
-  </si>
-  <si>
-    <t>1605</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>OVEJERA DEL NORTE S.A. DE C.V.</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1613</t>
-  </si>
-  <si>
-    <t>cotizacionAceptada</t>
-  </si>
-  <si>
-    <t>1622</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>1630</t>
-  </si>
-  <si>
-    <t>1631</t>
-  </si>
-  <si>
-    <t>1632</t>
-  </si>
-  <si>
-    <t>1633</t>
-  </si>
-  <si>
-    <t>1634</t>
-  </si>
-  <si>
-    <t>1635</t>
-  </si>
-  <si>
-    <t>1636</t>
-  </si>
-  <si>
-    <t>1637</t>
-  </si>
-  <si>
-    <t>1638</t>
-  </si>
-  <si>
-    <t>1639</t>
-  </si>
-  <si>
-    <t>1640</t>
-  </si>
-  <si>
-    <t>1641</t>
-  </si>
-  <si>
-    <t>1642</t>
-  </si>
-  <si>
-    <t>1643</t>
-  </si>
-  <si>
-    <t>1647</t>
-  </si>
-  <si>
-    <t>1649</t>
+    <t>1700</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1713</t>
+  </si>
+  <si>
+    <t>1714</t>
+  </si>
+  <si>
+    <t>1715</t>
+  </si>
+  <si>
+    <t>1716</t>
+  </si>
+  <si>
+    <t>1717</t>
+  </si>
+  <si>
+    <t>1718</t>
+  </si>
+  <si>
+    <t>1719</t>
+  </si>
+  <si>
+    <t>1720</t>
+  </si>
+  <si>
+    <t>1721</t>
+  </si>
+  <si>
+    <t>1722</t>
+  </si>
+  <si>
+    <t>1723</t>
+  </si>
+  <si>
+    <t>1724</t>
+  </si>
+  <si>
+    <t>1725</t>
+  </si>
+  <si>
+    <t>1726</t>
+  </si>
+  <si>
+    <t>1727</t>
+  </si>
+  <si>
+    <t>1728</t>
+  </si>
+  <si>
+    <t>1730</t>
+  </si>
+  <si>
+    <t>1731</t>
+  </si>
+  <si>
+    <t>1732</t>
+  </si>
+  <si>
+    <t>1733</t>
+  </si>
+  <si>
+    <t>1735</t>
   </si>
 </sst>
 </file>
@@ -647,9 +779,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
@@ -673,63 +805,63 @@
         <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -737,372 +869,904 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>76</v>
       </c>
-      <c r="C15" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>88</v>
-      </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>60</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B32" t="s">
         <v>92</v>
       </c>
-      <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
+      <c r="C32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B33" t="s">
         <v>93</v>
       </c>
-      <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
+      <c r="C33" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" t="s">
+        <v>55</v>
+      </c>
+      <c r="D38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" t="s">
         <v>94</v>
       </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
+      <c r="C40" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" t="s">
+        <v>113</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" t="s">
         <v>95</v>
       </c>
-      <c r="B28" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
+      <c r="C44" t="s">
+        <v>113</v>
+      </c>
+      <c r="D44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" t="s">
         <v>96</v>
       </c>
-      <c r="B29" t="s">
-        <v>64</v>
-      </c>
-      <c r="C29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>119</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" t="s">
         <v>97</v>
       </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>66</v>
-      </c>
-      <c r="D30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
+      <c r="C48" t="s">
+        <v>113</v>
+      </c>
+      <c r="D48" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>124</v>
+      </c>
+      <c r="B51" t="s">
         <v>98</v>
       </c>
-      <c r="B31" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="C51" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>125</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>126</v>
+      </c>
+      <c r="B53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>113</v>
+      </c>
+      <c r="D54" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>128</v>
+      </c>
+      <c r="B55" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>129</v>
+      </c>
+      <c r="B56" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>130</v>
+      </c>
+      <c r="B57" t="s">
+        <v>97</v>
+      </c>
+      <c r="C57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>133</v>
+      </c>
+      <c r="B60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" t="s">
+        <v>94</v>
+      </c>
+      <c r="C62" t="s">
+        <v>113</v>
+      </c>
+      <c r="D62" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" t="s">
+        <v>95</v>
+      </c>
+      <c r="C63" t="s">
+        <v>113</v>
+      </c>
+      <c r="D63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>137</v>
+      </c>
+      <c r="B64" t="s">
+        <v>96</v>
+      </c>
+      <c r="C64" t="s">
+        <v>113</v>
+      </c>
+      <c r="D64" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s">
+        <v>95</v>
+      </c>
+      <c r="C65" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>139</v>
+      </c>
+      <c r="B66" t="s">
+        <v>99</v>
+      </c>
+      <c r="C66" t="s">
+        <v>113</v>
+      </c>
+      <c r="D66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" t="s">
+        <v>96</v>
+      </c>
+      <c r="C67" t="s">
+        <v>113</v>
+      </c>
+      <c r="D67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+      <c r="B68" t="s">
+        <v>96</v>
+      </c>
+      <c r="C68" t="s">
+        <v>113</v>
+      </c>
+      <c r="D68" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>142</v>
+      </c>
+      <c r="B69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1112,10 +1776,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F226A1B-D8F6-4683-9B2A-5F6446A1E648}">
-  <dimension ref="A1:U15"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1125,7 +1789,7 @@
     <col min="3" max="20" customWidth="true" style="1" width="19.88671875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1186,10 +1850,19 @@
       <c r="T1" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row ht="28.8" r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row ht="28.8" r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>92</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
@@ -1198,10 +1871,10 @@
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>22</v>
@@ -1228,7 +1901,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O2" s="1">
         <v>12</v>
@@ -1249,9 +1922,9 @@
         <v>26</v>
       </c>
     </row>
-    <row ht="28.8" r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
@@ -1260,10 +1933,10 @@
         <v>23</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>22</v>
@@ -1272,7 +1945,7 @@
         <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="I3" s="1">
         <v>676000</v>
@@ -1302,7 +1975,7 @@
         <v>2</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>22</v>
@@ -1311,9 +1984,9 @@
         <v>26</v>
       </c>
     </row>
-    <row ht="28.8" r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1322,43 +1995,43 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="I4" s="1">
-        <v>676000</v>
+        <v>1000000</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="O4" s="1">
-        <v>12</v>
-      </c>
-      <c r="P4" s="1">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="Q4" s="1">
         <v>1</v>
@@ -1367,15 +2040,15 @@
         <v>25</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row ht="28.8" r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>95</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -1384,60 +2057,60 @@
         <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1">
-        <v>676000</v>
+        <v>1000000</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="O5" s="1">
-        <v>12</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>2</v>
+        <v>18</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="S5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row ht="28.8" r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>3</v>
@@ -1446,16 +2119,16 @@
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>27</v>
@@ -1470,7 +2143,7 @@
         <v>23</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>23</v>
@@ -1479,13 +2152,13 @@
         <v>24</v>
       </c>
       <c r="O6" s="1">
-        <v>12</v>
-      </c>
-      <c r="P6" s="1">
+        <v>18</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="1">
         <v>1</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>4</v>
       </c>
       <c r="R6" s="1" t="s">
         <v>25</v>
@@ -1497,9 +2170,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>3</v>
@@ -1508,60 +2181,60 @@
         <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I7" s="1">
-        <v>676000</v>
+        <v>1000000</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O7" s="1">
-        <v>12</v>
-      </c>
-      <c r="P7" s="1">
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="Q7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row ht="28.8" r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>3</v>
@@ -1570,16 +2243,16 @@
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>27</v>
@@ -1600,30 +2273,30 @@
         <v>23</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="O8" s="1">
-        <v>12</v>
-      </c>
-      <c r="P8" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="S8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row ht="28.8" r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row ht="28.8" r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>3</v>
@@ -1632,19 +2305,19 @@
         <v>23</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>30</v>
+        <v>88</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1">
         <v>676000</v>
@@ -1653,22 +2326,22 @@
         <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="O9" s="1">
-        <v>12</v>
-      </c>
-      <c r="P9" s="1">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="Q9" s="1">
         <v>1</v>
@@ -1677,381 +2350,9 @@
         <v>25</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T9" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="28.8" r="10" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="1">
-        <v>676000</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="1">
-        <v>12</v>
-      </c>
-      <c r="P10" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>2</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="28.8" r="11" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="1">
-        <v>676000</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O11" s="1">
-        <v>12</v>
-      </c>
-      <c r="P11" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>1</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="28.8" r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="1">
-        <v>676000</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="1">
-        <v>12</v>
-      </c>
-      <c r="P12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>2</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="28.8" r="13" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="1">
-        <v>676000</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="1">
-        <v>12</v>
-      </c>
-      <c r="P13" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>4</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="28.8" r="14" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="1">
-        <v>676000</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="1">
-        <v>12</v>
-      </c>
-      <c r="P14" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>2</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row ht="28.8" r="15" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I15" s="1">
-        <v>676000</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O15" s="1">
-        <v>12</v>
-      </c>
-      <c r="P15" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>1</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
